--- a/109下/109下 Excel/Excel 第一次上課/Excel 第一次練習.xlsx
+++ b/109下/109下 Excel/Excel 第一次上課/Excel 第一次練習.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PAN\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PAN\Documents\GitHub\NationalOpenUniversity\109下\109下 Excel\Excel 第一次上課\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3980055-09C8-42C4-97AC-A361BC7ED8E6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEE29468-867A-4684-9E46-1C2F763A1BB9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13152" yWindow="1584" windowWidth="19524" windowHeight="14244" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10404" yWindow="2976" windowWidth="15588" windowHeight="13524" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="銷售量" sheetId="1" r:id="rId1"/>
@@ -180,8 +180,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="177" formatCode="_-\$* #,##0_ ;_-\$* \-#,##0\ ;_-\$* &quot;-&quot;_ ;_-@_ "/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -313,7 +314,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -355,6 +356,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -375,16 +379,7 @@
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <b/>
@@ -728,10 +723,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I21" sqref="H21:I21"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -749,22 +744,22 @@
     <col min="11" max="11" width="6.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="24.6" customHeight="1">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:12" ht="24.6" customHeight="1">
+      <c r="A1" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
@@ -799,7 +794,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>9125</v>
       </c>
@@ -826,19 +821,23 @@
         <v>1800</v>
       </c>
       <c r="I3" t="str">
-        <f>IF(G3&gt;=H3,"合格","不合格")</f>
-        <v>合格</v>
+        <f>IF(G3&gt;=H3,"及格","不及格")</f>
+        <v>及格</v>
       </c>
       <c r="J3">
-        <f>RANK(G3,$G$3:$G$12)</f>
+        <f>_xlfn.RANK.EQ(G3,$G$3:$G$12)</f>
         <v>1</v>
       </c>
       <c r="K3">
-        <f>IF(G3&gt;H3,G3*3,G3*1.5)</f>
+        <f>IF(G3&gt;=H3,G3*3,G3*1.5)</f>
         <v>6039</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="L3" s="14">
+        <f>IF(I3="及格",G3*3,G3*1.5)</f>
+        <v>6039</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>8652</v>
       </c>
@@ -865,19 +864,23 @@
         <v>2000</v>
       </c>
       <c r="I4" t="str">
-        <f t="shared" ref="I4:I12" si="1">IF(G4&gt;=H4,"合格","不合格")</f>
-        <v>不合格</v>
+        <f t="shared" ref="I4:I12" si="1">IF(G4&gt;=H4,"及格","不及格")</f>
+        <v>不及格</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J12" si="2">RANK(G4,$G$3:$G$12)</f>
+        <f t="shared" ref="J4:J12" si="2">_xlfn.RANK.EQ(G4,$G$3:$G$12)</f>
         <v>2</v>
       </c>
       <c r="K4">
-        <f t="shared" ref="K4:K12" si="3">IF(G4&gt;H4,G4*3,G4*1.5)</f>
+        <f t="shared" ref="K4:K12" si="3">IF(G4&gt;=H4,G4*3,G4*1.5)</f>
         <v>2844</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="L4" s="14">
+        <f t="shared" ref="L4:L12" si="4">IF(I4="及格",G4*3,G4*1.5)</f>
+        <v>2844</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>8504</v>
       </c>
@@ -905,7 +908,7 @@
       </c>
       <c r="I5" t="str">
         <f t="shared" si="1"/>
-        <v>合格</v>
+        <v>及格</v>
       </c>
       <c r="J5">
         <f t="shared" si="2"/>
@@ -915,8 +918,12 @@
         <f t="shared" si="3"/>
         <v>4587</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="L5" s="14">
+        <f t="shared" si="4"/>
+        <v>4587</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>9122</v>
       </c>
@@ -944,7 +951,7 @@
       </c>
       <c r="I6" t="str">
         <f t="shared" si="1"/>
-        <v>不合格</v>
+        <v>不及格</v>
       </c>
       <c r="J6">
         <f t="shared" si="2"/>
@@ -954,8 +961,12 @@
         <f t="shared" si="3"/>
         <v>2251.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="L6" s="14">
+        <f t="shared" si="4"/>
+        <v>2251.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>9036</v>
       </c>
@@ -983,7 +994,7 @@
       </c>
       <c r="I7" t="str">
         <f t="shared" si="1"/>
-        <v>不合格</v>
+        <v>不及格</v>
       </c>
       <c r="J7">
         <f t="shared" si="2"/>
@@ -993,8 +1004,12 @@
         <f t="shared" si="3"/>
         <v>1924.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="L7" s="14">
+        <f t="shared" si="4"/>
+        <v>1924.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>8105</v>
       </c>
@@ -1022,7 +1037,7 @@
       </c>
       <c r="I8" t="str">
         <f t="shared" si="1"/>
-        <v>合格</v>
+        <v>及格</v>
       </c>
       <c r="J8">
         <f t="shared" si="2"/>
@@ -1032,8 +1047,12 @@
         <f t="shared" si="3"/>
         <v>3438</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="L8" s="14">
+        <f t="shared" si="4"/>
+        <v>3438</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="2">
         <v>8317</v>
       </c>
@@ -1061,7 +1080,7 @@
       </c>
       <c r="I9" t="str">
         <f t="shared" si="1"/>
-        <v>不合格</v>
+        <v>不及格</v>
       </c>
       <c r="J9">
         <f t="shared" si="2"/>
@@ -1071,8 +1090,12 @@
         <f t="shared" si="3"/>
         <v>1684.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="L9" s="14">
+        <f t="shared" si="4"/>
+        <v>1684.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>7821</v>
       </c>
@@ -1100,7 +1123,7 @@
       </c>
       <c r="I10" t="str">
         <f t="shared" si="1"/>
-        <v>合格</v>
+        <v>及格</v>
       </c>
       <c r="J10">
         <f t="shared" si="2"/>
@@ -1110,8 +1133,12 @@
         <f t="shared" si="3"/>
         <v>3255</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="L10" s="14">
+        <f t="shared" si="4"/>
+        <v>3255</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>9108</v>
       </c>
@@ -1139,7 +1166,7 @@
       </c>
       <c r="I11" t="str">
         <f t="shared" si="1"/>
-        <v>不合格</v>
+        <v>不及格</v>
       </c>
       <c r="J11">
         <f t="shared" si="2"/>
@@ -1149,8 +1176,12 @@
         <f t="shared" si="3"/>
         <v>1396.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="L11" s="14">
+        <f t="shared" si="4"/>
+        <v>1396.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>8103</v>
       </c>
@@ -1178,7 +1209,7 @@
       </c>
       <c r="I12" t="str">
         <f t="shared" si="1"/>
-        <v>不合格</v>
+        <v>不及格</v>
       </c>
       <c r="J12">
         <f t="shared" si="2"/>
@@ -1188,50 +1219,54 @@
         <f t="shared" si="3"/>
         <v>1014</v>
       </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="L12" s="14">
+        <f t="shared" si="4"/>
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="14" t="s">
+    <row r="14" spans="1:12">
+      <c r="A14" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="14"/>
+      <c r="B14" s="15"/>
       <c r="C14" s="11">
-        <f>SUM(C3:C12)</f>
+        <f>SUM(C3:C13)</f>
         <v>4106</v>
       </c>
       <c r="D14" s="11">
-        <f t="shared" ref="D14:F14" si="4">SUM(D3:D12)</f>
+        <f>SUM(D3:D13)</f>
         <v>3785</v>
       </c>
       <c r="E14" s="11">
-        <f t="shared" si="4"/>
+        <f>SUM(E3:E13)</f>
         <v>3458</v>
       </c>
       <c r="F14" s="11">
-        <f t="shared" si="4"/>
+        <f>SUM(F3:F13)</f>
         <v>1834</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="14" t="s">
+    <row r="15" spans="1:12">
+      <c r="A15" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="14"/>
+      <c r="B15" s="15"/>
       <c r="C15">
-        <f>COUNTIF(I3:I12,"合格")</f>
+        <f>COUNTIF(I3:I12,"及格")</f>
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="14" t="s">
+    <row r="16" spans="1:12">
+      <c r="A16" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="14"/>
+      <c r="B16" s="15"/>
       <c r="C16">
-        <f>COUNTIF(I3:I12,"不合格")</f>
+        <f>COUNTIF(I3:I12,"不及格")</f>
         <v>6</v>
       </c>
     </row>
@@ -1264,7 +1299,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G3:H13">
-    <cfRule type="cellIs" dxfId="1" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>60</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1321,7 +1356,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -1333,23 +1368,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17.399999999999999" thickTop="1" thickBot="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="16"/>
+      <c r="B1" s="17"/>
       <c r="C1" s="6">
-        <v>9122</v>
+        <v>8504</v>
       </c>
       <c r="D1" s="3"/>
     </row>
     <row r="2" spans="1:4" ht="16.8" thickTop="1"/>
     <row r="3" spans="1:4">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1"/>
@@ -1359,15 +1394,15 @@
         <v>23</v>
       </c>
       <c r="B5" s="13">
-        <f>VLOOKUP(C1,銷售量!A2:F11,1,0)</f>
-        <v>9122</v>
+        <f>VLOOKUP(銷售查詢!C1,銷售量!A3:K12,1,FALSE)</f>
+        <v>8504</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="13" t="str">
-        <f>VLOOKUP(C1,銷售量!A3:F12,2,0)</f>
-        <v>李清玲</v>
+        <f>VLOOKUP(C1,銷售量!A3:K12,2,FALSE)</f>
+        <v>潘千慧</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1375,15 +1410,15 @@
         <v>24</v>
       </c>
       <c r="B6" s="13">
-        <f>VLOOKUP(C1,銷售量!A3:F12,3,0)</f>
-        <v>745</v>
+        <f>VLOOKUP(C1,銷售量!A3:K12,3,FALSE)</f>
+        <v>128</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="13">
-        <f>VLOOKUP(C1,銷售量!A3:F12,4,0)</f>
-        <v>335</v>
+        <f>VLOOKUP(C1,銷售量!A3:K12,4,FALSE)</f>
+        <v>845</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1391,47 +1426,59 @@
         <v>6</v>
       </c>
       <c r="B7" s="13">
-        <f>VLOOKUP(C1,銷售量!A3:F12,5,0)</f>
+        <f>VLOOKUP(C1,銷售量!A3:K12,5,FALSE)</f>
         <v>336</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="13">
-        <f>VLOOKUP(C1,銷售量!A3:F12,6,0)</f>
-        <v>85</v>
+        <f>VLOOKUP(C1,銷售量!A3:K12,6,FALSE)</f>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="13" t="e">
-        <f>VLOOKUP(C1,銷售量!G3:G12,1,0)</f>
-        <v>#N/A</v>
+      <c r="B8" s="13">
+        <f>VLOOKUP(C1,銷售量!A3:K12,7,FALSE)</f>
+        <v>1529</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="13"/>
+      <c r="D8" s="13">
+        <f>VLOOKUP(C1,銷售量!A3:K12,8,FALSE)</f>
+        <v>1400</v>
+      </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="13"/>
+      <c r="B9" s="13" t="str">
+        <f>VLOOKUP(C1,銷售量!A3:K12,9,FALSE)</f>
+        <v>及格</v>
+      </c>
       <c r="C9" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="13"/>
+      <c r="D9" s="13">
+        <f>VLOOKUP(C1,銷售量!A3:K12,10,FALSE)</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
+      <c r="B10" s="18">
+        <f>VLOOKUP(C1,銷售量!A3:K12,11,FALSE)</f>
+        <v>4587</v>
+      </c>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="3">
